--- a/py/연체 관련 항목별 %추출.xlsx
+++ b/py/연체 관련 항목별 %추출.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\HoldCredit\py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE529D-DC4B-4FC8-A298-73C643B2CB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="45" yWindow="24180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,27 +40,15 @@
     <t>지역코드</t>
   </si>
   <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
     <t>주거지</t>
   </si>
   <si>
     <t>주소지</t>
   </si>
   <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
     <t>상품 판매기간</t>
   </si>
   <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
     <t>(신용관리대상/공공정보)등록 총 건수</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>저축은행업권 12개월전 대출총금액 대비 현재 대출총금액의 증가금액</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>전은연 계좌별 대부업권 미상환 대출 총기관수(대부업 저축은행 인터넷전문은행 정보 공유용)</t>
   </si>
   <si>
@@ -635,17 +626,37 @@
   </si>
   <si>
     <t>SP등급</t>
+  </si>
+  <si>
+    <t>LU0024001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRC_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAC_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -653,8 +664,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -700,15 +718,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -750,7 +776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,9 +808,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -816,6 +860,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -991,14 +1053,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="128.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,15 +1074,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.100639644401962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.1006396444019619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1022,15 +1090,15 @@
         <v>1.937140881209904</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5606993553938148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.56069935539381477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1038,1615 +1106,1617 @@
         <v>3.508033445606586</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>0.80835150216344642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.8083515021634464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>1.1377971132987741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1.137797113298774</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
       <c r="B8">
-        <v>1.159119200444718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>1.1591192004447179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="B9">
         <v>0.1031039744959253</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3046662373657197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.30466623736571968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="B11">
-        <v>0.8353575425805455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.83535754258054551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="B12">
-        <v>0.2874907096691353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.28749070966913531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.194544574178552</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>3.408679397839052E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>3.408679397839052E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>0.0008684297661782579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>8.6842976617825787E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>0.225671994995338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.22567199499533799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.61603121895690904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.33970411948517859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.31548700494941212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.29377587981586051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
         <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0.616031218956909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0.3397041194851786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0.3154870049494121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>0.2937758798158605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
       </c>
       <c r="B22">
         <v>1.312974652874072</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>0.419948931374079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.41994893137407902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>1.415714641221135</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>1.334094967153697</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>1.372995350498116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1.3729953504981161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>0.2289813168385269</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>0.30853070627001028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>0.33813057426114412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0.35115171282232199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0.70633000367583076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A32" t="s">
         <v>28</v>
-      </c>
-      <c r="B28">
-        <v>0.3085307062700103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0.3381305742611441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0.351151712822322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0.7063300036758308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
       </c>
       <c r="B32">
         <v>0.6974251844221494</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0.69838382342628691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.42349807417428581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0.17201974455960309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0.57641360329576841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>0.6983838234262869</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="B37">
+        <v>0.19624866498951629</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A38" t="s">
         <v>34</v>
-      </c>
-      <c r="B34">
-        <v>0.4234980741742858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>0.1720197445596031</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>0.5764136032957684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>0.1962486649895163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
       </c>
       <c r="B38">
         <v>0.1652644152585912</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>0.2689784113970865</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>0.2235767969994323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.22357679699943231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>0.2318608301335493</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>0.4879132347719181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.48791323477191811</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B43">
-        <v>0.6133654973614485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.61336549736144852</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>0.2654614681614344</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>0.24882025159089</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B46">
-        <v>0.2684643936717157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.26846439367171571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B47">
-        <v>0.2410701333947919</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.24107013339479191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B48">
-        <v>0.2359223318296025</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.23592233182960251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>0.5847244434135519</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>0.48013661828945797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>0.29458699242436071</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0.31722875817534751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>0.29157440684693181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>0.480136618289458</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B54">
+        <v>0.43694184244393452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A55" t="s">
         <v>51</v>
-      </c>
-      <c r="B51">
-        <v>0.2945869924243607</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>0.3172287581753475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>0.2915744068469318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>0.4369418424439345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
       </c>
       <c r="B55">
         <v>0.3279501090771223</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>0.3279335336232023</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.32793353362320232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>0.3173004704434998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.31730047044349979</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B58">
-        <v>0.38711295959604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.38711295959603997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>1.273073027961539</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B60">
-        <v>0.7976973806402017</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.79769738064020168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>0.5250480634664789</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.52504806346647892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>0.3044250365269657</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.30442503652696568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>1.6655340319811359E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>2.6296051892354368E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>1.072331637394223E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>1.6127427670019501E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>0.01665534031981136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B69">
+        <v>0.22905981559179561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A70" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>0.02629605189235437</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="B70">
+        <v>0.23123701242635469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
         <v>67</v>
-      </c>
-      <c r="B67">
-        <v>0.01072331637394223</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>0.0161274276700195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>0.2290598155917956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>0.2312370124263547</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
       </c>
       <c r="B71">
         <v>0.2498477329678464</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>9.6141022686264885E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>9.8295440665369382E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>8.3001383279098419E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75">
+        <v>6.5134245284321851E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>0.009614102268626488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B76">
+        <v>2.6465011050203712E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
         <v>73</v>
-      </c>
-      <c r="B73">
-        <v>0.009829544066536938</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>0.008300138327909842</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>0.06513424528432185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>0.002646501105020371</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B78">
-        <v>0.09141597446870502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>9.1415974468705016E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>1.507545965885317</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B80">
         <v>0.1127884143072979</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>8.3570639723955134E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82">
+        <v>2.9908851513218899E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B83">
+        <v>3.2052605523945539E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84">
+        <v>4.0189921482839067E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A85" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0.08357063972395513</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B85">
+        <v>1.645473066725888E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A86" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>0.00299088515132189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B86">
+        <v>4.6645612908452396E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A87" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>0.003205260552394554</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B87">
+        <v>0.48654067680233681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A88" t="s">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>0.004018992148283907</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B88">
+        <v>1.4095843463780711</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A89" t="s">
         <v>85</v>
       </c>
-      <c r="B85">
-        <v>0.001645473066725888</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B89">
+        <v>0.48863428118677871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A90" t="s">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>0.00466456129084524</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B90">
+        <v>0.39388278692170647</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A91" t="s">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>0.4865406768023368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B91">
+        <v>0.70293720059802833</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A92" t="s">
         <v>88</v>
-      </c>
-      <c r="B88">
-        <v>1.409584346378071</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89">
-        <v>0.4886342811867787</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>0.3938827869217065</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>0.7029372005980283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
       </c>
       <c r="B92">
         <v>0.3928392714149303</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B93">
-        <v>0.394722866495771</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.39472286649577099</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <v>0.3792865677314874</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.37928656773148739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <v>0.09935516558612388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>9.9355165586123881E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>0.1109729933368193</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97">
+        <v>0.38972479209022498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>0.23978383839019921</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>0.33531654472617328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <v>0.40148088939360571</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A101" t="s">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>0.389724792090225</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B101">
+        <v>0.43812367085450038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A102" t="s">
         <v>98</v>
-      </c>
-      <c r="B98">
-        <v>0.2397838383901992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
-        <v>0.3353165447261733</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
-        <v>0.4014808893936057</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
-        <v>0.4381236708545004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
       </c>
       <c r="B102">
         <v>0.8080134205708106</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>0.39264962250241842</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104">
+        <v>0.94184318111474419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105">
+        <v>0.51962126025675826</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106">
+        <v>0.53394589449653884</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A107" t="s">
         <v>103</v>
       </c>
-      <c r="B103">
-        <v>0.3926496225024184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B107">
+        <v>0.52065689214488398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A108" t="s">
         <v>104</v>
       </c>
-      <c r="B104">
-        <v>0.9418431811147442</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B108">
+        <v>0.38258095614806559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A109" t="s">
         <v>105</v>
       </c>
-      <c r="B105">
-        <v>0.5196212602567583</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B109">
+        <v>0.90636495311166976</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A110" t="s">
         <v>106</v>
       </c>
-      <c r="B106">
-        <v>0.5339458944965388</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B110">
+        <v>0.22446145171050019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A111" t="s">
         <v>107</v>
       </c>
-      <c r="B107">
-        <v>0.520656892144884</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B111">
+        <v>0.22246606639169089</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A112" t="s">
         <v>108</v>
-      </c>
-      <c r="B108">
-        <v>0.3825809561480656</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <v>0.9063649531116698</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <v>0.2244614517105002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>0.2224660663916909</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
       </c>
       <c r="B112">
         <v>0.219408094149318</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B113">
-        <v>0.0008975951572597494</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>8.9759515725974944E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B114">
-        <v>0.0001363320491951531</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.363320491951531E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B115">
-        <v>0.198292347659887</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.19829234765988701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
+        <v>113</v>
+      </c>
+      <c r="B117">
+        <v>0.62165059301189607</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118">
+        <v>0.33615564440366852</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119">
+        <v>0.31456290559714323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A120" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120">
+        <v>0.28857198098779241</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A121" t="s">
         <v>117</v>
-      </c>
-      <c r="B117">
-        <v>0.6216505930118961</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>0.3361556444036685</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>0.3145629055971432</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>0.2885719809877924</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
       </c>
       <c r="B121">
         <v>1.300851732075925</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B122">
-        <v>0.4465984148950223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.44659841489502228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B123">
         <v>1.417765733384043</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B124">
-        <v>1.350542026727858</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>1.3505420267278581</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>1.370328982232371</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>0.23773784372045151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <v>0.32520183392745478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <v>0.35167142190181172</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A129" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129">
+        <v>0.33545765221217999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
-        <v>0.2377378437204515</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B130">
+        <v>0.69134938026335535</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>0.3252018339274548</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B131">
+        <v>0.64548290285953602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A132" t="s">
         <v>128</v>
-      </c>
-      <c r="B128">
-        <v>0.3516714219018117</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>0.33545765221218</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>0.6913493802633554</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>0.645482902859536</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>132</v>
       </c>
       <c r="B132">
         <v>0.73881291368488</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B133">
-        <v>0.4135914223080178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.41359142230801782</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B134">
-        <v>0.1719320125111015</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.17193201251110149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B135">
-        <v>0.5564035281292614</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.55640352812926142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B136">
         <v>0.1813486869328339</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A137" t="s">
+        <v>133</v>
+      </c>
+      <c r="B137">
+        <v>0.16599108678212379</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A138" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138">
+        <v>0.27126471745729192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <v>0.21684695320629641</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <v>0.23735041097205639</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A141" t="s">
         <v>137</v>
       </c>
-      <c r="B137">
-        <v>0.1659910867821238</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B141">
+        <v>0.48875919889960012</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A142" t="s">
         <v>138</v>
       </c>
-      <c r="B138">
-        <v>0.2712647174572919</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B142">
+        <v>0.63744158976858467</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A143" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>0.2168469532062964</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B143">
+        <v>0.26489278118195619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A144" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
-        <v>0.2373504109720564</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B144">
+        <v>0.26923881951974887</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A145" t="s">
         <v>141</v>
       </c>
-      <c r="B141">
-        <v>0.4887591988996001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B145">
+        <v>0.24044214481024459</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A146" t="s">
         <v>142</v>
       </c>
-      <c r="B142">
-        <v>0.6374415897685847</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B146">
+        <v>0.25815171171531021</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A147" t="s">
         <v>143</v>
-      </c>
-      <c r="B143">
-        <v>0.2648927811819562</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>0.2692388195197489</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>0.2404421448102446</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>0.2581517117153102</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>147</v>
       </c>
       <c r="B147">
         <v>0.251150030793791</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148">
+        <v>0.61431345704281615</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149">
+        <v>0.48630491351152411</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <v>0.29349214066911072</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>0.32842817697586169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A152" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
-        <v>0.6143134570428161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
+      <c r="B152">
+        <v>0.29413222590951121</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A153" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>0.4863049135115241</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B153">
+        <v>0.42491037036404622</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A154" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
-        <v>0.2934921406691107</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B154">
+        <v>0.32041710715266769</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A155" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>0.3284281769758617</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B155">
+        <v>0.33038358813522828</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A156" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
-        <v>0.2941322259095112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B156">
+        <v>0.30041437625954698</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A157" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
-        <v>0.4249103703640462</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B157">
+        <v>0.38530194653881628</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A158" t="s">
         <v>154</v>
-      </c>
-      <c r="B154">
-        <v>0.3204171071526677</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <v>0.3303835881352283</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>0.300414376259547</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
-        <v>0.3853019465388163</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>158</v>
       </c>
       <c r="B158">
         <v>1.317883576352515</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B159">
-        <v>0.7872556140356211</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>0.78725561403562105</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B160">
-        <v>0.5640659006994903</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>0.56406590069949025</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B161">
-        <v>0.3013519686422683</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>0.30135196864226832</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164">
+        <v>1.7334555281970018E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165">
+        <v>2.7789969782335468E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A166" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <v>1.428446376209805E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A167" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167">
+        <v>1.387948238212252E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A168" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
-        <v>0.01733455528197002</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B168">
+        <v>0.22679023767828899</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A169" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
-        <v>0.02778996978233547</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B169">
+        <v>0.22798224023955249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A170" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
-        <v>0.01428446376209805</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B170">
+        <v>0.27195085255923163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A171" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
-        <v>0.01387948238212252</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B171">
+        <v>7.4966949909171044E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A172" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
-        <v>0.226790237678289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B172">
+        <v>8.3237167725030339E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A173" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
-        <v>0.2279822402395525</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B173">
+        <v>1.235734465275605E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A174" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
-        <v>0.2719508525592316</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B174">
+        <v>8.4657567120373381E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A175" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
-        <v>0.007496694990917104</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B175">
+        <v>2.0790919447912859E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A176" t="s">
         <v>172</v>
-      </c>
-      <c r="B172">
-        <v>0.008323716772503034</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
-        <v>0.01235734465275605</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
-        <v>0.08465756712037338</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
-        <v>0.002079091944791286</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>176</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B177">
         <v>0.112035084491276</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>1.477190089341746</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B179">
         <v>0.1143385561656701</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <v>8.4050658084228833E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <v>2.5027598916850411E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <v>2.9431911169488338E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A183" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183">
+        <v>4.2138297931039988E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A184" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
-        <v>0.08405065808422883</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B184">
+        <v>2.5769591282764439E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A185" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
-        <v>0.002502759891685041</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B185">
+        <v>4.7662098423351378E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A186" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186">
+        <v>0.51960470873883491</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A187" t="s">
         <v>182</v>
       </c>
-      <c r="B182">
-        <v>0.002943191116948834</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B187">
+        <v>1.4268398115049019</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A188" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
-        <v>0.004213829793103999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B188">
+        <v>0.49302289060051302</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A189" t="s">
         <v>184</v>
       </c>
-      <c r="B184">
-        <v>0.002576959128276444</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B189">
+        <v>0.41023188907511487</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A190" t="s">
         <v>185</v>
       </c>
-      <c r="B185">
-        <v>0.004766209842335138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B190">
+        <v>0.66639340227265975</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A191" t="s">
         <v>186</v>
       </c>
-      <c r="B186">
-        <v>0.5196047087388349</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B191">
+        <v>0.38324519791184958</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A192" t="s">
         <v>187</v>
       </c>
-      <c r="B187">
-        <v>1.426839811504902</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+      <c r="B192">
+        <v>0.41513860488904197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A193" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
-        <v>0.493022890600513</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B193">
+        <v>0.38054184404489783</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A194" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
-        <v>0.4102318890751149</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B194">
+        <v>9.5870729421208917E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A195" t="s">
         <v>190</v>
-      </c>
-      <c r="B190">
-        <v>0.6663934022726598</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191">
-        <v>0.3832451979118496</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192">
-        <v>0.415138604889042</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193">
-        <v>0.3805418440448978</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194">
-        <v>0.09587072942120892</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>195</v>
       </c>
       <c r="B195">
         <v>0.1134277646670004</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B196">
-        <v>0.3415004242904064</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
+        <v>0.34150042429040639</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B197">
-        <v>0.2509050227782886</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
+        <v>0.25090502277828858</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B198">
-        <v>0.3648907718324608</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>0.36489077183246083</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B199">
         <v>0.404521679158235</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A200" t="s">
+        <v>195</v>
+      </c>
+      <c r="B200">
+        <v>0.41464567247750411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A201" t="s">
+        <v>196</v>
+      </c>
+      <c r="B201">
+        <v>0.78131258785864732</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A202" t="s">
+        <v>197</v>
+      </c>
+      <c r="B202">
+        <v>0.39362530847514998</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A203" t="s">
+        <v>198</v>
+      </c>
+      <c r="B203">
+        <v>0.93578471643077143</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A204" t="s">
+        <v>199</v>
+      </c>
+      <c r="B204">
+        <v>0.55941681051715497</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A205" t="s">
         <v>200</v>
-      </c>
-      <c r="B200">
-        <v>0.4146456724775041</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201">
-        <v>0.7813125878586473</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202">
-        <v>0.39362530847515</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203">
-        <v>0.9357847164307714</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204">
-        <v>0.559416810517155</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
-        <v>205</v>
       </c>
       <c r="B205">
         <v>16.21729199043158</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B206">
         <v>0.1464105692514833</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>